--- a/Clusters_3_removed.xlsx
+++ b/Clusters_3_removed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DearUser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DearUser\Desktop\GitHub_Repo\DL_COPPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA87FC3-5473-4837-959B-C7DEC0CEF49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB7431-F517-4771-ACFF-A43CABF1B8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,8 +281,8 @@
   </sheetPr>
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AF76" sqref="AF76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -501,13 +501,13 @@
         <v>5</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -617,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -733,13 +733,13 @@
         <v>5</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ4">
         <v>5</v>
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -965,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ6">
         <v>5</v>
@@ -1081,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -1197,13 +1197,13 @@
         <v>4</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ8">
         <v>4</v>
@@ -1313,13 +1313,13 @@
         <v>5</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ9">
         <v>5</v>
@@ -1429,13 +1429,13 @@
         <v>5</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -1893,13 +1893,13 @@
         <v>4</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH14">
         <v>4</v>
       </c>
       <c r="AI14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ14">
         <v>4</v>
@@ -2009,13 +2009,13 @@
         <v>4</v>
       </c>
       <c r="AG15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ15">
         <v>4</v>
@@ -2125,13 +2125,13 @@
         <v>4</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ16">
         <v>4</v>
@@ -2821,13 +2821,13 @@
         <v>4</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -3285,13 +3285,13 @@
         <v>4</v>
       </c>
       <c r="AG26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ26">
         <v>4</v>
@@ -3633,13 +3633,13 @@
         <v>5</v>
       </c>
       <c r="AG29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ29">
         <v>5</v>
@@ -3749,13 +3749,13 @@
         <v>5</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ30">
         <v>5</v>
@@ -3865,13 +3865,13 @@
         <v>4</v>
       </c>
       <c r="AG31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ31">
         <v>4</v>
@@ -3981,13 +3981,13 @@
         <v>4</v>
       </c>
       <c r="AG32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ32">
         <v>4</v>
@@ -4445,13 +4445,13 @@
         <v>5</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ36">
         <v>5</v>
@@ -4561,13 +4561,13 @@
         <v>5</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ37">
         <v>5</v>
@@ -4677,13 +4677,13 @@
         <v>5</v>
       </c>
       <c r="AG38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ38">
         <v>5</v>
@@ -4909,13 +4909,13 @@
         <v>5</v>
       </c>
       <c r="AG40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ40">
         <v>5</v>
@@ -5373,13 +5373,13 @@
         <v>5</v>
       </c>
       <c r="AG44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ44">
         <v>5</v>
@@ -5489,13 +5489,13 @@
         <v>5</v>
       </c>
       <c r="AG45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ45">
         <v>5</v>
@@ -5605,13 +5605,13 @@
         <v>5</v>
       </c>
       <c r="AG46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ46">
         <v>5</v>
@@ -5837,13 +5837,13 @@
         <v>5</v>
       </c>
       <c r="AG48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ48">
         <v>5</v>
@@ -6185,10 +6185,10 @@
         <v>3</v>
       </c>
       <c r="AG51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI51">
         <v>3</v>
@@ -6417,13 +6417,13 @@
         <v>4</v>
       </c>
       <c r="AG53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ53">
         <v>4</v>
@@ -6533,13 +6533,13 @@
         <v>4</v>
       </c>
       <c r="AG54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ54">
         <v>4</v>
@@ -6649,13 +6649,13 @@
         <v>4</v>
       </c>
       <c r="AG55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ55">
         <v>4</v>
